--- a/Progress log.xlsx
+++ b/Progress log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Torre\techtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12C761C-3316-40C6-9C60-689DF01A52B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E59854A-0181-4E66-AB99-D0F718AA0131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="16680" windowWidth="24240" windowHeight="13140" xr2:uid="{A1AAA9E3-127D-4517-ADA7-3A72A3AC675F}"/>
+    <workbookView xWindow="8745" yWindow="18495" windowWidth="21600" windowHeight="11385" xr2:uid="{A1AAA9E3-127D-4517-ADA7-3A72A3AC675F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Requirements &amp; Planning</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Time (hr)</t>
+  </si>
+  <si>
+    <t>List all requirements</t>
+  </si>
+  <si>
+    <t>Research animations in Angular routing</t>
+  </si>
+  <si>
+    <t>Research animations for Angular components</t>
+  </si>
+  <si>
+    <t>Define screens</t>
   </si>
 </sst>
 </file>
@@ -400,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEE9A03-7820-47A3-AA28-065693565378}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +486,38 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>

--- a/Progress log.xlsx
+++ b/Progress log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Torre\techtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E59854A-0181-4E66-AB99-D0F718AA0131}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A2D9A7-9AEC-4407-AD83-D66202AE32BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="18495" windowWidth="21600" windowHeight="11385" xr2:uid="{A1AAA9E3-127D-4517-ADA7-3A72A3AC675F}"/>
+    <workbookView xWindow="2100" yWindow="16680" windowWidth="24240" windowHeight="13140" xr2:uid="{A1AAA9E3-127D-4517-ADA7-3A72A3AC675F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Requirements &amp; Planning</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>Define screens</t>
+  </si>
+  <si>
+    <t>Design main screen</t>
+  </si>
+  <si>
+    <t>Design genoma view</t>
+  </si>
+  <si>
+    <t>Design job view</t>
+  </si>
+  <si>
+    <t>Develop main screen</t>
   </si>
 </sst>
 </file>
@@ -415,7 +427,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,12 +505,27 @@
       <c r="B3">
         <v>0.5</v>
       </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
@@ -507,6 +534,12 @@
         <v>9</v>
       </c>
       <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
     </row>

--- a/Progress log.xlsx
+++ b/Progress log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Torre\techtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A2D9A7-9AEC-4407-AD83-D66202AE32BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B257ECFF-2B1C-47CD-82F8-365255E812EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="16680" windowWidth="24240" windowHeight="13140" xr2:uid="{A1AAA9E3-127D-4517-ADA7-3A72A3AC675F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Requirements &amp; Planning</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Develop main screen</t>
+  </si>
+  <si>
+    <t>Develop genoma screen</t>
+  </si>
+  <si>
+    <t>Develop job screen</t>
+  </si>
+  <si>
+    <t>Test all screens</t>
   </si>
 </sst>
 </file>
@@ -427,7 +436,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,6 +523,15 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -528,6 +546,12 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -541,6 +565,12 @@
       </c>
       <c r="D5">
         <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">

--- a/Progress log.xlsx
+++ b/Progress log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Torre\techtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B257ECFF-2B1C-47CD-82F8-365255E812EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1FF614-4CFB-496F-8A43-7473FFFC9F60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="16680" windowWidth="24240" windowHeight="13140" xr2:uid="{A1AAA9E3-127D-4517-ADA7-3A72A3AC675F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Requirements &amp; Planning</t>
   </si>
@@ -436,7 +436,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,6 +532,12 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
